--- a/Bug Reports/import letter of credit Bug Report of bank side.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of bank side.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D6F901-BF27-4523-A404-335BDCCFEFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347A0C8-320B-49E6-A791-18703CF55E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,6 +593,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -607,9 +610,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,11 +913,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
@@ -925,11 +925,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
@@ -937,11 +937,11 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="11">
@@ -1158,7 +1158,7 @@
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="11">

--- a/Bug Reports/import letter of credit Bug Report of bank side.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of bank side.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C347A0C8-320B-49E6-A791-18703CF55E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3B2BC4-EA8A-4B3B-90D2-4FABE247D7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <r>
       <t>System Name</t>
@@ -248,9 +248,6 @@
     <t>57a, BIC code filed should be optional.</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">
 </t>
@@ -301,6 +298,51 @@
   </si>
   <si>
     <t>46A: when we break the lines, the new lines are not reflected in the swift, it consider all of them as a one line.(please check the event fields and how to reflected in the swift avoiding of like this bug).</t>
+  </si>
+  <si>
+    <t>for this lc type, it is supposed only 'payment' to be available in 
+Payment Term.</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Letter of Credit Pre - Advice[MT705] event -&gt; 
+creation mode -&gt; usance type.</t>
+  </si>
+  <si>
+    <t>Letter of Credit Pre - Advice[MT705] event -&gt; 
+creation mode -&gt; sight type.</t>
+  </si>
+  <si>
+    <t>for this lc type, it is not acceptable for 'payment ' option to be available for selection here.</t>
+  </si>
+  <si>
+    <t>Letter of Credit Pre - Advice[MT705] event -&gt; 
+creation mode -&gt; mode of transport field.</t>
+  </si>
+  <si>
+    <t>the hint over this field is not correct.</t>
+  </si>
+  <si>
+    <t>Letter of Credit Pre - Advice[MT705] event -&gt; 
+creation mode -&gt;Charge Type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the option 'RECEIVED' to be 'BEN'. </t>
+  </si>
+  <si>
+    <t>Letter of Credit Pre - Advice[MT705] event -&gt; 
+review mode -&gt; reject it.</t>
+  </si>
+  <si>
+    <t>when reject it, nothing rejected, the event will authorized.</t>
+  </si>
+  <si>
+    <t>Import LC Bill Lodgement-&gt;Delivery Against field.</t>
+  </si>
+  <si>
+    <t>Delivery Against field, is entered in issue event at whole LC level, and we can not edit in lodgment event, so this field to be removed.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,12 +477,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -552,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -589,7 +625,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -892,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,11 +948,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
@@ -925,11 +960,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
@@ -937,11 +972,11 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -979,7 +1014,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="11">
         <v>45326</v>
@@ -1001,8 +1036,8 @@
       <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>56</v>
+      <c r="D6" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="E6" s="11">
         <v>45327</v>
@@ -1025,7 +1060,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="11">
         <v>45328</v>
@@ -1089,8 +1124,8 @@
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>57</v>
+      <c r="D10" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="11">
         <v>45329</v>
@@ -1113,7 +1148,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="11">
         <v>45329</v>
@@ -1158,8 +1193,8 @@
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>62</v>
+      <c r="D13" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E13" s="11">
         <v>45330</v>
@@ -1238,7 +1273,7 @@
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:8" ht="75">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1274,15 +1309,15 @@
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>53</v>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>14</v>
@@ -1291,10 +1326,13 @@
         <v>45333</v>
       </c>
       <c r="F19" s="11">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="105">
+        <v>45403</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1312,7 +1350,7 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="195">
+    <row r="21" spans="1:8" ht="195">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1330,7 +1368,7 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1353,7 +1391,7 @@
         <v>45382</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:8" ht="30">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1371,15 +1409,15 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>53</v>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>46</v>
@@ -1388,10 +1426,14 @@
         <v>45335</v>
       </c>
       <c r="F24" s="11">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30">
+        <v>45406</v>
+      </c>
+      <c r="G24" s="13">
+        <v>45406</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="30">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>45357</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1432,7 +1474,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="42.75">
+    <row r="27" spans="1:8" ht="42.75">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1455,7 +1497,7 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="45">
+    <row r="28" spans="1:8" ht="45">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1473,15 +1515,15 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:7" ht="46.5" customHeight="1">
+    <row r="29" spans="1:8" ht="46.5" customHeight="1">
       <c r="A29">
         <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>9</v>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>27</v>
@@ -1489,9 +1531,14 @@
       <c r="E29" s="11">
         <v>45342</v>
       </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" s="11">
+        <v>45403</v>
+      </c>
+      <c r="G29" s="13">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1509,7 +1556,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1527,15 +1574,15 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:7" ht="150">
+    <row r="32" spans="1:8" ht="150">
       <c r="A32">
         <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>53</v>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>33</v>
@@ -1544,7 +1591,10 @@
         <v>45344</v>
       </c>
       <c r="F32" s="11">
-        <v>45396</v>
+        <v>45403</v>
+      </c>
+      <c r="G32" s="13">
+        <v>45403</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45">
@@ -1627,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="13">
         <v>45327</v>
@@ -1644,7 +1694,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="13">
         <v>45328</v>
@@ -1667,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="13">
         <v>45328</v>
@@ -1677,6 +1727,126 @@
       </c>
       <c r="G38" s="13">
         <v>45396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F40" s="13">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="13">
+        <v>45405</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="11">
+        <v>45405</v>
+      </c>
+      <c r="F44" s="13">
+        <v>45405</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/import letter of credit Bug Report of bank side.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of bank side.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3B2BC4-EA8A-4B3B-90D2-4FABE247D7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBCF8A2-99B0-4B64-8418-04CC3CD0CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$59</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
   <si>
     <r>
       <t>System Name</t>
@@ -97,16 +100,7 @@
     <t>license date field: should be disabled.</t>
   </si>
   <si>
-    <t>define different accounts for CBS branches, ex: branch for homs, branch for aleppo…</t>
-  </si>
-  <si>
-    <t>in the disabled branch name field, we need this field to be compatible with the branch of customer account id, for ex:the customer account id in Aleppo branch, then the branch name field should be filled atomatically by the name of aleppo branch.</t>
-  </si>
-  <si>
     <t>FOB value to be optional.</t>
-  </si>
-  <si>
-    <t>advising commission should be 3000syp and postage should be 2000syp for local currency.</t>
   </si>
   <si>
     <t>we need Custom Certificate Details fields (the same as in bill lodgment),also in advise event, and this custom Certificate Details should be optional and enabled 'only' for the private sector account(as agreed we suppose that already specified the type of account 'public' or 'private' when we define the account, so this will help us to make a decision for this custom certificate).</t>
@@ -120,9 +114,6 @@
   <si>
     <t>the label 'Nostro Bank Name' :should be 'Correspondent Name'.
 The label 'Nostro Credit Account' :should be 'Correspondent Credit Account'.</t>
-  </si>
-  <si>
-    <t>lc payment, with adding new oup charges.</t>
   </si>
   <si>
     <t xml:space="preserve">lc amendment </t>
@@ -233,9 +224,6 @@
 in this case we can input the details of specific document, by selecting the required document from description field, and then select the mail number from drop list then enter the original and the copy of received and office copy and add them,and then repeat the input for the second mail.</t>
   </si>
   <si>
-    <t>we could not add new oup charge,it needs configuration.</t>
-  </si>
-  <si>
     <t>1- 48 narrative field should be longer.</t>
   </si>
   <si>
@@ -288,12 +276,6 @@
     <t>45A field(goods tolerance) should be removed.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1- inco term field:CIP to be added.
-2- mode of transport: multiple mode required(the same as pre-advise).
-3- in oup charge type field, we need this ILC commission type to be added.</t>
-  </si>
-  <si>
     <t>48 field :should be reflected to the swift.</t>
   </si>
   <si>
@@ -343,6 +325,101 @@
   </si>
   <si>
     <t>Delivery Against field, is entered in issue event at whole LC level, and we can not edit in lodgment event, so this field to be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Import LC Bill Lodgement </t>
+  </si>
+  <si>
+    <t>field '20' does not accept the charecters '/' or '-'</t>
+  </si>
+  <si>
+    <t>Document Date to be the same as Correspondant Letter Date by default.</t>
+  </si>
+  <si>
+    <t>LC payment</t>
+  </si>
+  <si>
+    <t>save as draft option is needed in payment event.</t>
+  </si>
+  <si>
+    <t>20sender reference is our reference, it should be or ILC reference bydefault.</t>
+  </si>
+  <si>
+    <t>MT734 advise of refusal</t>
+  </si>
+  <si>
+    <t>20 field should be filled automatically with our lc reference number.</t>
+  </si>
+  <si>
+    <t>77B, to be list of codes, instead of filling it manually.</t>
+  </si>
+  <si>
+    <t>advise of payment</t>
+  </si>
+  <si>
+    <t>20 should be our reference (ILC reference),21 should be the 
+corresponadnt reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+23 field is not reflected to the swift message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+field 30 is not existed, and should be refelected to the swift message.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+field 30 date of disacrpancies is needed in lodgment event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ reseiver field is needed.</t>
+  </si>
+  <si>
+    <t>the value date to be bydefault after 2 days from the curent date.</t>
+  </si>
+  <si>
+    <t>Letter of Credit enquiry</t>
+  </si>
+  <si>
+    <t>in stage field, no option to filter by Bill lodgment.</t>
+  </si>
+  <si>
+    <t>when select for some events, reference number &amp; account id column should refere to the reference number &amp; account id for the current event not for the ILC reference or ILC account id.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lc advise event</t>
+  </si>
+  <si>
+    <t>when save the LC as draft, the status of this LC apeare as authorized and is not correct.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>bank team is looking forward to have the ability to refuse the received documents at the same 'Bill Lodgment' event(which means to send MT734 at the same lodgment event).</t>
+  </si>
+  <si>
+    <t>missed implemetaion(not bug)</t>
+  </si>
+  <si>
+    <t>bank team is looking forward to have the ability to send MT799 at the same event if they want.</t>
+  </si>
+  <si>
+    <t>in amendment event</t>
+  </si>
+  <si>
+    <t>when select amend type, the serial number of 'number of 
+adjustment' field should is not affected by the this type of amend.</t>
+  </si>
+  <si>
+    <t>2- mode of transport: multiple mode required(the same as pre-advise).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+inco term field:CIP to be added.
+</t>
   </si>
 </sst>
 </file>
@@ -428,7 +505,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -631,6 +714,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -927,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -939,20 +1023,21 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="6" width="33" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24" style="13" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
@@ -960,11 +1045,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
@@ -972,11 +1057,11 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -985,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>6</v>
@@ -997,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="141" customHeight="1">
@@ -1011,10 +1096,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="11">
         <v>45326</v>
@@ -1034,10 +1119,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="11">
         <v>45327</v>
@@ -1049,23 +1134,28 @@
         <v>45386</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="90">
+    <row r="7" spans="1:8" ht="45">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="E7" s="11">
         <v>45328</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11">
+        <v>45425</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45425</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="68.25" customHeight="1">
       <c r="A8">
@@ -1075,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11">
         <v>45328</v>
@@ -1099,10 +1189,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E9" s="11">
         <v>45328</v>
@@ -1122,10 +1212,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E10" s="11">
         <v>45329</v>
@@ -1145,10 +1235,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E11" s="11">
         <v>45329</v>
@@ -1168,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="11">
         <v>45329</v>
@@ -1191,10 +1281,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>45330</v>
@@ -1214,10 +1304,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="E14" s="11">
         <v>45330</v>
@@ -1229,7 +1319,7 @@
         <v>45347</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="63" customHeight="1">
@@ -1240,10 +1330,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E15" s="11">
         <v>45330</v>
@@ -1255,363 +1345,384 @@
         <v>45347</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8">
       <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" s="11">
         <v>45333</v>
       </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="75">
+    <row r="17" spans="1:8">
       <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E17" s="11">
         <v>45333</v>
       </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="F17" s="11">
+        <v>45403</v>
+      </c>
+      <c r="G17" s="13">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="105">
       <c r="A18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E18" s="11">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="195">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45334</v>
+      </c>
+      <c r="F19" s="11">
+        <v>45425</v>
+      </c>
+      <c r="G19" s="13">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="11">
-        <v>45333</v>
-      </c>
-      <c r="F19" s="11">
-        <v>45403</v>
-      </c>
-      <c r="G19" s="13">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="105">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E20" s="11">
         <v>45334</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="195">
+      <c r="F20" s="11">
+        <v>45382</v>
+      </c>
+      <c r="G20" s="13">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" s="11">
-        <v>45334</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>45335</v>
+      </c>
+      <c r="F21" s="11">
+        <v>45406</v>
+      </c>
+      <c r="G21" s="13">
+        <v>45406</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30">
       <c r="A22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="11">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="F22" s="11">
-        <v>45382</v>
+        <v>45357</v>
       </c>
       <c r="G22" s="13">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30">
+        <v>45357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42.75">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="E23" s="12">
+        <v>45337</v>
+      </c>
+      <c r="F23" s="12">
+        <v>45396</v>
+      </c>
+      <c r="G23" s="13">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="11">
-        <v>45334</v>
-      </c>
-      <c r="F23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E24" s="11">
-        <v>45335</v>
-      </c>
-      <c r="F24" s="11">
-        <v>45406</v>
-      </c>
-      <c r="G24" s="13">
-        <v>45406</v>
-      </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" ht="30">
+        <v>45337</v>
+      </c>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" ht="46.5" customHeight="1">
       <c r="A25">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" s="11">
-        <v>45335</v>
+        <v>45342</v>
       </c>
       <c r="F25" s="11">
-        <v>45357</v>
+        <v>45403</v>
       </c>
       <c r="G25" s="13">
-        <v>45357</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="E26" s="11">
-        <v>45337</v>
+        <v>45342</v>
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="42.75">
+    <row r="27" spans="1:8">
       <c r="A27">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="12">
-        <v>45337</v>
-      </c>
-      <c r="F27" s="12">
+        <v>30</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="11">
+        <v>45342</v>
+      </c>
+      <c r="F27" s="11">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="150">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="11">
+        <v>45344</v>
+      </c>
+      <c r="F28" s="11">
+        <v>45403</v>
+      </c>
+      <c r="G28" s="13">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="45">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="13">
+        <v>45350</v>
+      </c>
+      <c r="F29" s="13">
         <v>45396</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G29" s="13">
         <v>45396</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="11">
-        <v>45337</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="46.5" customHeight="1">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="11">
-        <v>45342</v>
-      </c>
-      <c r="F29" s="11">
-        <v>45403</v>
-      </c>
-      <c r="G29" s="13">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="30">
       <c r="A30">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="11">
-        <v>45342</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="E30" s="13">
+        <v>45357</v>
+      </c>
+      <c r="F30" s="13">
+        <v>45396</v>
+      </c>
+      <c r="G30" s="13">
+        <v>45396</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="13">
+        <v>45326</v>
+      </c>
+      <c r="F31" s="13">
+        <v>45382</v>
+      </c>
+      <c r="G31" s="13">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="195">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="11">
-        <v>45342</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" ht="150">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="13">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30">
+      <c r="A33">
         <v>33</v>
       </c>
-      <c r="E32" s="11">
-        <v>45344</v>
-      </c>
-      <c r="F32" s="11">
-        <v>45403</v>
-      </c>
-      <c r="G32" s="13">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45">
-      <c r="A33">
-        <v>29</v>
-      </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E33" s="13">
-        <v>45350</v>
+        <v>45328</v>
       </c>
       <c r="F33" s="13">
         <v>45396</v>
@@ -1620,21 +1731,21 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7">
       <c r="A34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E34" s="13">
-        <v>45357</v>
+        <v>45328</v>
       </c>
       <c r="F34" s="13">
         <v>45396</v>
@@ -1643,213 +1754,556 @@
         <v>45396</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E35" s="13">
-        <v>45326</v>
+        <v>45405</v>
       </c>
       <c r="F35" s="13">
-        <v>45382</v>
+        <v>45425</v>
       </c>
       <c r="G35" s="13">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="195">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30">
       <c r="A36">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E36" s="13">
-        <v>45327</v>
+        <v>45405</v>
+      </c>
+      <c r="F36" s="13">
+        <v>45425</v>
+      </c>
+      <c r="G36" s="13">
+        <v>45425</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E37" s="13">
-        <v>45328</v>
+        <v>45405</v>
       </c>
       <c r="F37" s="13">
-        <v>45396</v>
+        <v>45425</v>
       </c>
       <c r="G37" s="13">
-        <v>45396</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
       <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E38" s="13">
-        <v>45328</v>
+        <v>45405</v>
       </c>
       <c r="F38" s="13">
-        <v>45396</v>
+        <v>45424</v>
       </c>
       <c r="G38" s="13">
-        <v>45396</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="C39" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D39" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E39" s="13">
         <v>45405</v>
       </c>
       <c r="F39" s="13">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
+        <v>45424</v>
+      </c>
+      <c r="G39" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45">
       <c r="A40">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="13">
+        <v>68</v>
+      </c>
+      <c r="E40" s="11">
         <v>45405</v>
       </c>
       <c r="F40" s="13">
         <v>45405</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7">
       <c r="A41">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>9</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="13">
-        <v>45405</v>
+        <v>45410</v>
       </c>
       <c r="F41" s="13">
-        <v>45405</v>
+        <v>45424</v>
+      </c>
+      <c r="G41" s="13">
+        <v>45424</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
       <c r="A42">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="13">
+        <v>45410</v>
+      </c>
+      <c r="F42" s="13">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="13">
-        <v>45405</v>
-      </c>
-      <c r="F42" s="13">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30">
-      <c r="A43">
-        <v>39</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="13">
+        <v>45410</v>
+      </c>
+      <c r="F43" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G43" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="13">
-        <v>45405</v>
-      </c>
-      <c r="F43" s="13">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>63</v>
+      <c r="C44" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="11">
-        <v>45405</v>
+      <c r="E44" s="13">
+        <v>45411</v>
       </c>
       <c r="F44" s="13">
-        <v>45405</v>
+        <v>45424</v>
+      </c>
+      <c r="G44" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F45" s="13">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F46" s="13">
+        <v>45435</v>
+      </c>
+      <c r="G46" s="13">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F49" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G49" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E51" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F51" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G51" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52" s="13">
+        <v>45412</v>
+      </c>
+      <c r="F52" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G52" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" s="13">
+        <v>45420</v>
+      </c>
+      <c r="F53" s="13">
+        <v>45424</v>
+      </c>
+      <c r="G53" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="60">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="13">
+        <v>45420</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="13">
+        <v>45420</v>
+      </c>
+      <c r="F55" s="13">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="13">
+        <v>45420</v>
+      </c>
+      <c r="F56" s="13">
+        <v>45420</v>
+      </c>
+      <c r="H56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="13">
+        <v>45420</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45420</v>
+      </c>
+      <c r="H57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="13">
+        <v>45425</v>
+      </c>
+      <c r="F58" s="13">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="13">
+        <v>45328</v>
+      </c>
+      <c r="F59" s="13">
+        <v>45425</v>
+      </c>
+      <c r="G59" s="13">
+        <v>45425</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>

--- a/Bug Reports/import letter of credit Bug Report of bank side.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of bank side.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBCF8A2-99B0-4B64-8418-04CC3CD0CE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6A2AAB-F36D-4522-A863-9456B69F2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$58</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="136">
   <si>
     <r>
       <t>System Name</t>
@@ -321,12 +322,6 @@
     <t>when reject it, nothing rejected, the event will authorized.</t>
   </si>
   <si>
-    <t>Import LC Bill Lodgement-&gt;Delivery Against field.</t>
-  </si>
-  <si>
-    <t>Delivery Against field, is entered in issue event at whole LC level, and we can not edit in lodgment event, so this field to be removed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Import LC Bill Lodgement </t>
   </si>
   <si>
@@ -405,9 +400,6 @@
   </si>
   <si>
     <t>bank team is looking forward to have the ability to send MT799 at the same event if they want.</t>
-  </si>
-  <si>
-    <t>in amendment event</t>
   </si>
   <si>
     <t>when select amend type, the serial number of 'number of 
@@ -420,15 +412,169 @@
     <t xml:space="preserve">
 inco term field:CIP to be added.
 </t>
+  </si>
+  <si>
+    <t>enquiry event.</t>
+  </si>
+  <si>
+    <t>the user usually searchs by the reference of this product only, no need to fill the customer number.</t>
+  </si>
+  <si>
+    <t>you consider the customer number is mandatory field.</t>
+  </si>
+  <si>
+    <r>
+      <t>for each stage(event), when click on view button, bank team expects to give them the details of this event</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(all the details)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, currently you view the same result for all stage(the results should change with the viewed stage).</t>
+    </r>
+  </si>
+  <si>
+    <t>lc advise event</t>
+  </si>
+  <si>
+    <t>the hint over mode of transport not correct.</t>
+  </si>
+  <si>
+    <t>presentation days to be editable.</t>
+  </si>
+  <si>
+    <t>lc advise event -&gt; creation mode.</t>
+  </si>
+  <si>
+    <t>(48) Period for Presentation in Days should be validated by this rule '3n[/35x]' according to the swift.</t>
+  </si>
+  <si>
+    <t>58a to be optional for all confirmation instruction cases.</t>
+  </si>
+  <si>
+    <t>lc advise event &amp; lc amendment event.</t>
+  </si>
+  <si>
+    <t>the allowed length of licence number field should be at least 12 charecters</t>
+  </si>
+  <si>
+    <t>only the amended field to be viewed in MT707 message.</t>
+  </si>
+  <si>
+    <t>when fill the periodic days manually and tab it, the value of this field changes automatically.</t>
+  </si>
+  <si>
+    <t>amendment event -&gt;creation mode -&gt; adjust mode.</t>
+  </si>
+  <si>
+    <t>in adjust mode, user needs to have the ability to edit 'mail date', 'mail number', 'applicant details','beneficiary details'.</t>
+  </si>
+  <si>
+    <t>amendment event -&gt;review or autorize mode.</t>
+  </si>
+  <si>
+    <t>Import LC Bill Lodgement.</t>
+  </si>
+  <si>
+    <t>(20)Sender's Reference field to be filled automatically from the issuance event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+(21)Reference No to be filled automatically from previous inward MT730 from the correspondent or if there is no MT 730 to fill it manually.</t>
+  </si>
+  <si>
+    <t>purchase order date and delivery against to be disbaled</t>
+  </si>
+  <si>
+    <t>for sight LC, Due date field to be disabled.</t>
+  </si>
+  <si>
+    <t>the label 'mail Ref number' to be 'mail NO'.</t>
+  </si>
+  <si>
+    <t>from Port', 'To port' fields to come from issuane and disabled(uneditable).</t>
+  </si>
+  <si>
+    <t>(30) Date of Advice of Discrepancy or Mailing' to be 32  Date and Amount of Utilisation.</t>
+  </si>
+  <si>
+    <t>document received from other bank field to be filled automatically by the advising bank and editable.</t>
+  </si>
+  <si>
+    <t>when click on F2 to search for bill, amount field is needed in the list of bills.</t>
+  </si>
+  <si>
+    <t>receiver bank to be filled automatically, from lodgment by the  bank that sent the document('document received from bank' field).</t>
+  </si>
+  <si>
+    <t>Import LC Bill Lodgement, advice of refusal, advise of payment.</t>
+  </si>
+  <si>
+    <t>when click on F2 to search for bill, amount field and state of bill 'complied or non complied' field are needed in the list of bills</t>
+  </si>
+  <si>
+    <t>30 field to be filled automatically from lodgment event by the correspondent letter date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no field refers to '32B Total Amount Advised' </t>
+  </si>
+  <si>
+    <t>33a field should be named ' Net Amount', and reflected to the swift message.</t>
+  </si>
+  <si>
+    <t>bank team is looking forward having the option to pay the bill at the same bill lodgment event without sending MT 752, (to meet the case when the correspondent sends complied docs and register the bill amount on my account before I pay it, for this case user should have the ability to do the entries for payment without sending MT752).</t>
+  </si>
+  <si>
+    <t>for review stage the message should be 'reveiweed succesfully' not 'authorized succesfully'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+we can pay the same bill more times, it is not acceptable.</t>
+  </si>
+  <si>
+    <t>Date of Advice of Refusal' field to be named 'Date of Utilisation'.</t>
+  </si>
+  <si>
+    <t>32A Date of Utilisation' field to be filled automatically from 
+lodgment event by 'correspondent letter date'.</t>
+  </si>
+  <si>
+    <t>regarding to lodgment event, according to bank practice, they asked for the following options:
+1-for complied docs, and the correspondent has registered the bill amount on my account: in this case we are in need to generate the payment entries without sending MT752, may send MT799.
+2-for complied docs, however the receiver did not register the bill amount only sent the bill:  we are in need to make the payment entries and sending MT752.
+-for the case of non complied docs: we are in need to send MT734 and Mt 799 in this event.
+MT799 is needed optionally for all cases.
+all the mentioned options are wanted by bank team at the same lodgmenet event.</t>
+  </si>
+  <si>
+    <t>details for commission like: from date, to date, the percentage per quarter, and the amount of this commission in the commission section.</t>
+  </si>
+  <si>
+    <t>the specified mode('amend', 'adjust') does not appear in this stage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;?_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -671,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -715,6 +861,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1011,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,21 +1178,21 @@
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" style="13" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
@@ -1045,11 +1200,11 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
@@ -1057,11 +1212,11 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
@@ -1145,7 +1300,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" s="11">
         <v>45328</v>
@@ -1347,7 +1502,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -1365,7 +1520,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -1388,7 +1543,7 @@
     </row>
     <row r="18" spans="1:8" ht="105">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1406,7 +1561,7 @@
     </row>
     <row r="19" spans="1:8" ht="195">
       <c r="A19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1429,7 +1584,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1452,7 +1607,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -1476,7 +1631,7 @@
     </row>
     <row r="22" spans="1:8" ht="30">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1499,7 +1654,7 @@
     </row>
     <row r="23" spans="1:8" ht="42.75">
       <c r="A23">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>18</v>
@@ -1522,7 +1677,7 @@
     </row>
     <row r="24" spans="1:8" ht="45">
       <c r="A24">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1540,7 +1695,7 @@
     </row>
     <row r="25" spans="1:8" ht="46.5" customHeight="1">
       <c r="A25">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1563,7 +1718,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -1581,7 +1736,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1601,7 +1756,7 @@
     </row>
     <row r="28" spans="1:8" ht="150">
       <c r="A28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1624,7 +1779,7 @@
     </row>
     <row r="29" spans="1:8" ht="45">
       <c r="A29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1647,7 +1802,7 @@
     </row>
     <row r="30" spans="1:8" ht="30">
       <c r="A30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
@@ -1670,7 +1825,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1693,7 +1848,7 @@
     </row>
     <row r="32" spans="1:8" ht="195">
       <c r="A32">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1710,7 +1865,7 @@
     </row>
     <row r="33" spans="1:7" ht="30">
       <c r="A33">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>11</v>
@@ -1733,7 +1888,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
@@ -1756,7 +1911,7 @@
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>59</v>
@@ -1779,7 +1934,7 @@
     </row>
     <row r="36" spans="1:7" ht="30">
       <c r="A36">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>58</v>
@@ -1802,7 +1957,7 @@
     </row>
     <row r="37" spans="1:7" ht="30">
       <c r="A37">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>61</v>
@@ -1825,7 +1980,7 @@
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>65</v>
@@ -1848,7 +2003,7 @@
     </row>
     <row r="39" spans="1:7" ht="30">
       <c r="A39">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>63</v>
@@ -1869,58 +2024,58 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7">
       <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>57</v>
+      <c r="C40" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E40" s="11">
-        <v>45405</v>
+      <c r="E40" s="13">
+        <v>45410</v>
       </c>
       <c r="F40" s="13">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>45424</v>
+      </c>
+      <c r="G40" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30">
       <c r="A41">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E41" s="13">
         <v>45410</v>
       </c>
       <c r="F41" s="13">
-        <v>45424</v>
-      </c>
-      <c r="G41" s="13">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>71</v>
@@ -1929,24 +2084,27 @@
         <v>45410</v>
       </c>
       <c r="F42" s="13">
-        <v>45410</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>45424</v>
+      </c>
+      <c r="G42" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
       <c r="A43">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E43" s="13">
-        <v>45410</v>
+        <v>45411</v>
       </c>
       <c r="F43" s="13">
         <v>45424</v>
@@ -1955,58 +2113,61 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30">
+    <row r="44" spans="1:7">
       <c r="A44">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
         <v>74</v>
       </c>
       <c r="E44" s="13">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="F44" s="13">
-        <v>45424</v>
+        <v>45453</v>
       </c>
       <c r="G44" s="13">
-        <v>45424</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" t="s">
-        <v>76</v>
       </c>
       <c r="E45" s="13">
         <v>45412</v>
       </c>
       <c r="F45" s="13">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>45435</v>
+      </c>
+      <c r="G45" s="13">
+        <v>45435</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30">
       <c r="A46">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>30</v>
+        <v>76</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>77</v>
@@ -2015,107 +2176,113 @@
         <v>45412</v>
       </c>
       <c r="F46" s="13">
-        <v>45435</v>
-      </c>
-      <c r="G46" s="13">
-        <v>45435</v>
+        <v>45412</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="A47">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E47" s="13">
         <v>45412</v>
       </c>
       <c r="F47" s="13">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="30">
+        <v>45453</v>
+      </c>
+      <c r="G47" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45">
       <c r="A48">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="13">
         <v>45412</v>
       </c>
       <c r="F48" s="13">
-        <v>45412</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="45">
+        <v>45424</v>
+      </c>
+      <c r="G48" s="13">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30">
       <c r="A49">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E49" s="13">
         <v>45412</v>
       </c>
       <c r="F49" s="13">
-        <v>45424</v>
+        <v>45453</v>
       </c>
       <c r="G49" s="13">
-        <v>45424</v>
+        <v>45453</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30">
       <c r="A50">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>9</v>
+        <v>76</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" s="13">
         <v>45412</v>
       </c>
       <c r="F50" s="13">
-        <v>45412</v>
+        <v>45424</v>
+      </c>
+      <c r="G50" s="13">
+        <v>45424</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30">
       <c r="A51">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" s="13">
         <v>45412</v>
@@ -2127,12 +2294,12 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30">
+    <row r="52" spans="1:8">
       <c r="A52">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>30</v>
@@ -2141,7 +2308,7 @@
         <v>84</v>
       </c>
       <c r="E52" s="13">
-        <v>45412</v>
+        <v>45420</v>
       </c>
       <c r="F52" s="13">
         <v>45424</v>
@@ -2150,35 +2317,32 @@
         <v>45424</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="60">
       <c r="A53">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="E53" s="13">
         <v>45420</v>
       </c>
       <c r="F53" s="13">
-        <v>45424</v>
-      </c>
-      <c r="G53" s="13">
-        <v>45424</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="60">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30">
       <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>85</v>
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>9</v>
@@ -2193,12 +2357,12 @@
         <v>45420</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30">
+    <row r="55" spans="1:8" ht="45">
       <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>9</v>
@@ -2212,13 +2376,16 @@
       <c r="F55" s="13">
         <v>45420</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="45">
+      <c r="H55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30">
       <c r="A56">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>9</v>
@@ -2233,77 +2400,701 @@
         <v>45420</v>
       </c>
       <c r="H56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="30">
-      <c r="A57">
-        <v>58</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="E57" s="13">
+        <v>45425</v>
+      </c>
+      <c r="F57" s="13">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58" t="s">
         <v>93</v>
       </c>
-      <c r="E57" s="13">
-        <v>45420</v>
-      </c>
-      <c r="F57" s="13">
-        <v>45420</v>
-      </c>
-      <c r="H57" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E58" s="13">
-        <v>45425</v>
+        <v>45328</v>
       </c>
       <c r="F58" s="13">
         <v>45425</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="G58" s="13">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30">
       <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="11">
+        <v>45439</v>
+      </c>
+      <c r="F59" s="21">
+        <v>45439</v>
+      </c>
+      <c r="G59" s="21"/>
+      <c r="H59" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60">
+      <c r="A60">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E59" s="13">
-        <v>45328</v>
-      </c>
-      <c r="F59" s="13">
-        <v>45425</v>
-      </c>
-      <c r="G59" s="13">
-        <v>45425</v>
+      <c r="B60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="13">
+        <v>45440</v>
+      </c>
+      <c r="F60" s="13">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F61" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F62" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F63" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F64" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F65" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F66" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="13">
+        <v>45446</v>
+      </c>
+      <c r="F67" s="13">
+        <v>45446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="13">
+        <v>45449</v>
+      </c>
+      <c r="F68" s="13">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="13">
+        <v>45449</v>
+      </c>
+      <c r="F69" s="13">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F70" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E71" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F71" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F72" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F73" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F74" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F75" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F76" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="30">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F77" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="13">
+        <v>45452</v>
+      </c>
+      <c r="F78" s="13">
+        <v>45452</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="45">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F79" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="60">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F80" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F81" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F82" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F83" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F84" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F85" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="225">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F86" s="13">
+        <v>45453</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F87" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E88" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F88" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E89" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F89" s="13">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="13">
+        <v>45453</v>
+      </c>
+      <c r="F90" s="13">
+        <v>45453</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:C58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -2311,4 +3102,47 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F0C5B-39D3-4930-BD60-680D060FB458}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60">
+      <c r="A1" s="20">
+        <v>61</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="23">
+        <v>45446</v>
+      </c>
+      <c r="F1" s="23">
+        <v>45446</v>
+      </c>
+      <c r="G1" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>